--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,42 +621,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff,</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-17</t>
+          <t>23-27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>If the propellers are installed correctly and the aircraft still cannot takeoff,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>6-17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The aircraft is moving</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cannot shoot panorama</t>
+          <t>The aircraft is moving</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,26 +712,26 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
+          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Capture Failed The aircraft is moving Cannot shoot panorama</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -746,92 +746,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>Stick movement detected</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Stick movement detected</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2-4</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Panorama has stopped</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5-7</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0-7</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/123/incorrect_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,42 +621,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff,</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23-27</t>
+          <t>0-17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance .</t>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>If the propellers are installed correctly and the aircraft still cannot takeoff,</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6-17</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>The aircraft is moving</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The aircraft is moving</t>
+          <t>Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,26 +712,26 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>Capture Failed The aircraft is moving Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -746,17 +746,92 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Capture Failed</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Stick movement detected</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>2-4</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Missing</t>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Panorama has stopped</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Capture Failed Stick movement detected Panorama has stopped .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Capture Failed Stick movement detected Panorama has stopped</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0-7</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
     </row>
